--- a/Microworld/Docs/schedule.xlsx
+++ b/Microworld/Docs/schedule.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_gna\Documents\TCD\Modules\CS7CS5_Dissertation\Microworld\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0486D23D-1B97-43C5-BEE7-C6C39CD26819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6C4613-133D-4902-9A6D-CD1538B18E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="My Schedule" sheetId="1" r:id="rId1"/>
+    <sheet name="TO DO" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TO DO'!$D$1:$D$28</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
   <si>
     <t>Activity</t>
   </si>
@@ -69,13 +73,163 @@
   </si>
   <si>
     <t># Days Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task </t>
+  </si>
+  <si>
+    <t>New growth while decaying.</t>
+  </si>
+  <si>
+    <t>Line graphs to capture tree stress.</t>
+  </si>
+  <si>
+    <t>Update CO2 scale.</t>
+  </si>
+  <si>
+    <t>Alter maintenance carbon mechanism.</t>
+  </si>
+  <si>
+    <t>Effort</t>
+  </si>
+  <si>
+    <t>Importance</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>To Do</t>
+  </si>
+  <si>
+    <t>Respawn in same spot from parent.</t>
+  </si>
+  <si>
+    <t>Fix Rotation Display &amp; Save Load Bug</t>
+  </si>
+  <si>
+    <t>Allow 0 Rotation Planning</t>
+  </si>
+  <si>
+    <t>Do not display decimal points.</t>
+  </si>
+  <si>
+    <t>Add commas to numbers.</t>
+  </si>
+  <si>
+    <t>Partially Executed (Amber) Actions</t>
+  </si>
+  <si>
+    <t>Maintenance and fixed cost of alternate income streams.</t>
+  </si>
+  <si>
+    <t>Add button response.</t>
+  </si>
+  <si>
+    <t>Action add repeat bug.</t>
+  </si>
+  <si>
+    <t>Targets - Invalid input bug.</t>
+  </si>
+  <si>
+    <t>If target is not met, pause the world &amp; display message.</t>
+  </si>
+  <si>
+    <t>Money unit change read.</t>
+  </si>
+  <si>
+    <t>Money unit change write.</t>
+  </si>
+  <si>
+    <t>Landing page.</t>
+  </si>
+  <si>
+    <t>Walkthrough page.</t>
+  </si>
+  <si>
+    <t>Fossil fuel emissions.</t>
+  </si>
+  <si>
+    <t>Fix bug = + income even with 0 dependency.</t>
+  </si>
+  <si>
+    <t>Base income and expendition from/on other streams on income dependency settings?</t>
+  </si>
+  <si>
+    <t>Per rotation income target.</t>
+  </si>
+  <si>
+    <t>Remove duplicate Funds instance.</t>
+  </si>
+  <si>
+    <t>Model Improvement</t>
+  </si>
+  <si>
+    <t>Reset on Home.</t>
+  </si>
+  <si>
+    <t>Cost of chopping depends on size of the tree.</t>
+  </si>
+  <si>
+    <t>Cost of living.</t>
+  </si>
+  <si>
+    <t>Option to show/hide certain elements.</t>
+  </si>
+  <si>
+    <t>Double Click Clear all</t>
+  </si>
+  <si>
+    <t>Removes last year from plan in planner.</t>
+  </si>
+  <si>
+    <t>Rotation Target Fail/Pass Bugs</t>
+  </si>
+  <si>
+    <t>Plant action selector restriction.</t>
+  </si>
+  <si>
+    <t>Rotation Income Viwer Resource on hover.</t>
+  </si>
+  <si>
+    <t>Range in CO2 scale on hover.</t>
+  </si>
+  <si>
+    <t>Bug - Pause when clicking on PLAN.</t>
+  </si>
+  <si>
+    <t>Almost</t>
+  </si>
+  <si>
+    <t>Handle situation when not enough money.</t>
+  </si>
+  <si>
+    <t>Show/Hide Components</t>
+  </si>
+  <si>
+    <t>Challenge SetUp</t>
+  </si>
+  <si>
+    <t>Page transitions</t>
+  </si>
+  <si>
+    <t>Help done checker.</t>
+  </si>
+  <si>
+    <t>Plot Simulation Data</t>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,8 +250,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,6 +284,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE1E1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -156,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -177,6 +354,40 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -185,6 +396,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFE1E1"/>
+      <color rgb="FFFFCCCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -461,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.4"/>
@@ -510,13 +727,14 @@
       </c>
       <c r="E2" s="2">
         <f ca="1">TODAY()</f>
-        <v>45430</v>
+        <v>45455</v>
       </c>
       <c r="F2" s="3">
-        <f ca="1">B2-E2</f>
-        <v>22</v>
-      </c>
-      <c r="G2" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
@@ -535,11 +753,11 @@
       </c>
       <c r="E3" s="2">
         <f t="shared" ref="E3:E5" ca="1" si="0">TODAY()</f>
-        <v>45430</v>
+        <v>45455</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" ref="F3:F5" ca="1" si="1">B3-E3</f>
-        <v>32</v>
+        <f ca="1">B3-E3</f>
+        <v>7</v>
       </c>
       <c r="G3" s="3"/>
     </row>
@@ -550,46 +768,46 @@
       </c>
       <c r="B4" s="2">
         <f>A4+C4</f>
-        <v>45482</v>
+        <v>45473</v>
       </c>
       <c r="C4" s="3">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45430</v>
+        <v>45455</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <f t="shared" ref="F4:F5" ca="1" si="1">B4-E4</f>
+        <v>18</v>
       </c>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <f>B4</f>
-        <v>45482</v>
+        <v>45473</v>
       </c>
       <c r="B5" s="2">
         <v>45505</v>
       </c>
       <c r="C5" s="3">
         <f>B5-A5</f>
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45430</v>
+        <v>45455</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G5" s="3"/>
     </row>
@@ -597,4 +815,630 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918FC948-B095-49A7-A0A5-360038ADB59C}">
+  <dimension ref="A1:D43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="50.69140625" style="11" customWidth="1"/>
+    <col min="2" max="4" width="12.69140625" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.23046875" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="12">
+        <v>3</v>
+      </c>
+      <c r="C2" s="12">
+        <v>3</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="12">
+        <v>3</v>
+      </c>
+      <c r="C3" s="12">
+        <v>3</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="13">
+        <v>2</v>
+      </c>
+      <c r="C4" s="12">
+        <v>3</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="13">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12">
+        <v>3</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="13">
+        <v>2</v>
+      </c>
+      <c r="C6" s="12">
+        <v>3</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="13">
+        <v>2</v>
+      </c>
+      <c r="C7" s="12">
+        <v>3</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="13">
+        <v>2</v>
+      </c>
+      <c r="C8" s="13">
+        <v>2</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="13">
+        <v>2</v>
+      </c>
+      <c r="C9" s="15">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="13">
+        <v>2</v>
+      </c>
+      <c r="C10" s="13">
+        <v>2</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="13">
+        <v>2</v>
+      </c>
+      <c r="C11" s="12">
+        <v>3</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="13">
+        <v>2</v>
+      </c>
+      <c r="C12" s="12">
+        <v>3</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="13">
+        <v>2</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="15">
+        <v>1</v>
+      </c>
+      <c r="C14" s="12">
+        <v>3</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="12">
+        <v>3</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="15">
+        <v>1</v>
+      </c>
+      <c r="C16" s="12">
+        <v>3</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="15">
+        <v>1</v>
+      </c>
+      <c r="C17" s="13">
+        <v>2</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="15">
+        <v>1</v>
+      </c>
+      <c r="C18" s="13">
+        <v>2</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="15">
+        <v>1</v>
+      </c>
+      <c r="C19" s="13">
+        <v>2</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="15">
+        <v>1</v>
+      </c>
+      <c r="C20" s="12">
+        <v>3</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="12">
+        <v>3</v>
+      </c>
+      <c r="C21" s="12">
+        <v>3</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="12">
+        <v>3</v>
+      </c>
+      <c r="C22" s="12">
+        <v>3</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="12">
+        <v>3</v>
+      </c>
+      <c r="C23" s="13">
+        <v>2</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="12">
+        <v>3</v>
+      </c>
+      <c r="C24" s="13">
+        <v>2</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="12">
+        <v>3</v>
+      </c>
+      <c r="C25" s="12">
+        <v>3</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="12">
+        <v>3</v>
+      </c>
+      <c r="C26" s="12">
+        <v>3</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="12">
+        <v>3</v>
+      </c>
+      <c r="C27" s="13">
+        <v>2</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="12">
+        <v>3</v>
+      </c>
+      <c r="C28" s="12">
+        <v>3</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="12">
+        <v>3</v>
+      </c>
+      <c r="C29" s="12">
+        <v>3</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="12">
+        <v>3</v>
+      </c>
+      <c r="C30" s="12">
+        <v>3</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="12">
+        <v>3</v>
+      </c>
+      <c r="C31" s="12">
+        <v>3</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A32" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="12">
+        <v>3</v>
+      </c>
+      <c r="C32" s="12">
+        <v>3</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="12">
+        <v>3</v>
+      </c>
+      <c r="C33" s="12">
+        <v>3</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="12">
+        <v>3</v>
+      </c>
+      <c r="C34" s="13">
+        <v>2</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="12">
+        <v>3</v>
+      </c>
+      <c r="C35" s="13">
+        <v>2</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="12">
+        <v>3</v>
+      </c>
+      <c r="C36" s="15">
+        <v>1</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="12">
+        <v>3</v>
+      </c>
+      <c r="C37" s="15">
+        <v>1</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="13">
+        <v>2</v>
+      </c>
+      <c r="C38" s="12">
+        <v>3</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="13">
+        <v>2</v>
+      </c>
+      <c r="C39" s="12">
+        <v>3</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="13">
+        <v>2</v>
+      </c>
+      <c r="C40" s="15">
+        <v>1</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="13">
+        <v>2</v>
+      </c>
+      <c r="C41" s="12">
+        <v>3</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="15">
+        <v>1</v>
+      </c>
+      <c r="C42" s="13">
+        <v>2</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="12">
+        <v>3</v>
+      </c>
+      <c r="C43" s="12">
+        <v>3</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D42">
+    <sortCondition descending="1" ref="D1:D42"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Microworld/Docs/schedule.xlsx
+++ b/Microworld/Docs/schedule.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_gna\Documents\TCD\Modules\CS7CS5_Dissertation\Microworld\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6C4613-133D-4902-9A6D-CD1538B18E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D620BC-6A23-4214-A6A4-B3869313DF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="My Schedule" sheetId="1" r:id="rId1"/>
     <sheet name="TO DO" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TO DO'!$D$1:$D$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TO DO'!$D$1:$D$57</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>Activity</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Allow 0 Rotation Planning</t>
   </si>
   <si>
-    <t>Do not display decimal points.</t>
-  </si>
-  <si>
     <t>Add commas to numbers.</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
     <t>Targets - Invalid input bug.</t>
   </si>
   <si>
-    <t>If target is not met, pause the world &amp; display message.</t>
-  </si>
-  <si>
     <t>Money unit change read.</t>
   </si>
   <si>
@@ -165,12 +159,6 @@
     <t>Remove duplicate Funds instance.</t>
   </si>
   <si>
-    <t>Model Improvement</t>
-  </si>
-  <si>
-    <t>Reset on Home.</t>
-  </si>
-  <si>
     <t>Cost of chopping depends on size of the tree.</t>
   </si>
   <si>
@@ -186,9 +174,6 @@
     <t>Removes last year from plan in planner.</t>
   </si>
   <si>
-    <t>Rotation Target Fail/Pass Bugs</t>
-  </si>
-  <si>
     <t>Plant action selector restriction.</t>
   </si>
   <si>
@@ -216,13 +201,121 @@
     <t>Page transitions</t>
   </si>
   <si>
-    <t>Help done checker.</t>
-  </si>
-  <si>
     <t>Plot Simulation Data</t>
   </si>
   <si>
-    <t>In Progress</t>
+    <t>Stabilize Model</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t>Reset on Home from Planner.</t>
+  </si>
+  <si>
+    <t>Allow any year. Display rotations in planner.</t>
+  </si>
+  <si>
+    <t>Set rotation income border such that it stays red throughout (forward in time) after a rotation has failed.</t>
+  </si>
+  <si>
+    <t>Update Challenges</t>
+  </si>
+  <si>
+    <t>Remove Target Income</t>
+  </si>
+  <si>
+    <t>Change color</t>
+  </si>
+  <si>
+    <t>Step Buttons</t>
+  </si>
+  <si>
+    <t>Questionnaire</t>
+  </si>
+  <si>
+    <t>5 mins presentation</t>
+  </si>
+  <si>
+    <t>Change currency to coin.</t>
+  </si>
+  <si>
+    <t>Update intro.</t>
+  </si>
+  <si>
+    <t>Update help.</t>
+  </si>
+  <si>
+    <t>Rotation Target Alert.</t>
+  </si>
+  <si>
+    <t>Carbon release from lumber.</t>
+  </si>
+  <si>
+    <t>Buying &amp; Selling Cost</t>
+  </si>
+  <si>
+    <t>Loading page.</t>
+  </si>
+  <si>
+    <t>Abandoned</t>
+  </si>
+  <si>
+    <t>Show tree type on hover.</t>
+  </si>
+  <si>
+    <t>Expenses (overall, rotation, year)</t>
+  </si>
+  <si>
+    <t>Income (overall, rotation, year)</t>
+  </si>
+  <si>
+    <t>Help as "info" buttons instead of help page.</t>
+  </si>
+  <si>
+    <t>Tree info on hover.</t>
+  </si>
+  <si>
+    <t>Selective money break down.</t>
+  </si>
+  <si>
+    <t>Help page visited leaf.</t>
+  </si>
+  <si>
+    <t>Disable key press until intro is complete once started.</t>
+  </si>
+  <si>
+    <t>User guide presentation.</t>
+  </si>
+  <si>
+    <t>User guide video.</t>
+  </si>
+  <si>
+    <t>Starting World</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Change Income Dependency to ON/OFF.</t>
+  </si>
+  <si>
+    <t>Make non-timber income streams based on profit numbers.</t>
+  </si>
+  <si>
+    <t>Document model network.</t>
+  </si>
+  <si>
+    <t>Update income dependency bar to change with money made.</t>
+  </si>
+  <si>
+    <t>Prevent negative carbon emissions.</t>
+  </si>
+  <si>
+    <t>Try to make recreation profitable.</t>
+  </si>
+  <si>
+    <t>Try to Fix Biodiversity Score</t>
   </si>
 </sst>
 </file>
@@ -256,7 +349,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,12 +392,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -333,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -378,16 +465,13 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -399,6 +483,8 @@
   <colors>
     <mruColors>
       <color rgb="FFFFE1E1"/>
+      <color rgb="FFE1CCF0"/>
+      <color rgb="FFC59EE2"/>
       <color rgb="FFFFCCCC"/>
     </mruColors>
   </colors>
@@ -678,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.4"/>
@@ -727,13 +813,13 @@
       </c>
       <c r="E2" s="2">
         <f ca="1">TODAY()</f>
-        <v>45455</v>
+        <v>45470</v>
       </c>
       <c r="F2" s="3">
         <v>0</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -753,13 +839,14 @@
       </c>
       <c r="E3" s="2">
         <f t="shared" ref="E3:E5" ca="1" si="0">TODAY()</f>
-        <v>45455</v>
+        <v>45470</v>
       </c>
       <c r="F3" s="3">
-        <f ca="1">B3-E3</f>
-        <v>7</v>
-      </c>
-      <c r="G3" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
@@ -768,46 +855,46 @@
       </c>
       <c r="B4" s="2">
         <f>A4+C4</f>
-        <v>45473</v>
+        <v>45470</v>
       </c>
       <c r="C4" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45455</v>
+        <v>45470</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" ref="F4:F5" ca="1" si="1">B4-E4</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <f>B4</f>
-        <v>45473</v>
+        <v>45470</v>
       </c>
       <c r="B5" s="2">
         <v>45505</v>
       </c>
       <c r="C5" s="3">
         <f>B5-A5</f>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45455</v>
+        <v>45470</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G5" s="3"/>
     </row>
@@ -819,16 +906,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918FC948-B095-49A7-A0A5-360038ADB59C}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="50.69140625" style="11" customWidth="1"/>
-    <col min="2" max="4" width="12.69140625" style="4" customWidth="1"/>
+    <col min="2" max="4" width="15.69140625" style="4" customWidth="1"/>
     <col min="5" max="16384" width="9.23046875" style="8"/>
   </cols>
   <sheetData>
@@ -837,18 +924,18 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
-        <v>41</v>
+    <row r="2" spans="1:4" ht="14.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="B2" s="12">
         <v>3</v>
@@ -860,9 +947,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="14.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B3" s="12">
         <v>3</v>
@@ -874,9 +961,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
-        <v>57</v>
+    <row r="4" spans="1:4" ht="14.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="B4" s="13">
         <v>2</v>
@@ -888,29 +975,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="14.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="13">
-        <v>2</v>
-      </c>
-      <c r="C5" s="12">
-        <v>3</v>
+        <v>67</v>
+      </c>
+      <c r="B5" s="12">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13">
+        <v>2</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="14.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="13">
-        <v>2</v>
-      </c>
-      <c r="C6" s="12">
-        <v>3</v>
+      <c r="B6" s="12">
+        <v>3</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>20</v>
@@ -918,13 +1005,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="13">
-        <v>2</v>
-      </c>
-      <c r="C7" s="12">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="B7" s="12">
+        <v>3</v>
+      </c>
+      <c r="C7" s="15">
+        <v>1</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>20</v>
@@ -932,189 +1019,189 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="13">
-        <v>2</v>
-      </c>
-      <c r="C8" s="13">
-        <v>2</v>
+        <v>44</v>
+      </c>
+      <c r="B8" s="12">
+        <v>3</v>
+      </c>
+      <c r="C8" s="15">
+        <v>1</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="13">
-        <v>2</v>
-      </c>
-      <c r="C9" s="15">
-        <v>1</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="13">
-        <v>2</v>
-      </c>
-      <c r="C10" s="13">
-        <v>2</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="14.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="12">
+        <v>3</v>
+      </c>
+      <c r="C9" s="12">
+        <v>3</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="12">
+        <v>3</v>
+      </c>
+      <c r="C10" s="12">
+        <v>3</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="13">
-        <v>2</v>
+        <v>57</v>
+      </c>
+      <c r="B11" s="12">
+        <v>3</v>
       </c>
       <c r="C11" s="12">
         <v>3</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>20</v>
+      <c r="D11" s="15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="13">
-        <v>2</v>
+        <v>73</v>
+      </c>
+      <c r="B12" s="12">
+        <v>3</v>
       </c>
       <c r="C12" s="12">
         <v>3</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>20</v>
+      <c r="D12" s="15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="13">
-        <v>2</v>
-      </c>
-      <c r="C13" s="13">
-        <v>2</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>20</v>
+        <v>55</v>
+      </c>
+      <c r="B13" s="12">
+        <v>3</v>
+      </c>
+      <c r="C13" s="12">
+        <v>3</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="15">
-        <v>1</v>
+      <c r="A14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="12">
+        <v>3</v>
       </c>
       <c r="C14" s="12">
         <v>3</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>20</v>
+      <c r="D14" s="15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="15">
-        <v>1</v>
+        <v>77</v>
+      </c>
+      <c r="B15" s="12">
+        <v>3</v>
       </c>
       <c r="C15" s="12">
         <v>3</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>20</v>
+      <c r="D15" s="15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="15">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="B16" s="12">
+        <v>3</v>
       </c>
       <c r="C16" s="12">
         <v>3</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>20</v>
+      <c r="D16" s="15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="15">
-        <v>1</v>
-      </c>
-      <c r="C17" s="13">
-        <v>2</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>20</v>
+        <v>75</v>
+      </c>
+      <c r="B17" s="12">
+        <v>3</v>
+      </c>
+      <c r="C17" s="12">
+        <v>3</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="15">
-        <v>1</v>
-      </c>
-      <c r="C18" s="13">
-        <v>2</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+      <c r="B18" s="12">
+        <v>3</v>
+      </c>
+      <c r="C18" s="12">
+        <v>3</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="15">
-        <v>1</v>
-      </c>
-      <c r="C19" s="13">
-        <v>2</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>20</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="12">
+        <v>3</v>
+      </c>
+      <c r="C19" s="12">
+        <v>3</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="15">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="B20" s="12">
+        <v>3</v>
       </c>
       <c r="C20" s="12">
         <v>3</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>20</v>
+      <c r="D20" s="15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B21" s="12">
         <v>3</v>
@@ -1128,7 +1215,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B22" s="12">
         <v>3</v>
@@ -1142,13 +1229,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B23" s="12">
         <v>3</v>
       </c>
-      <c r="C23" s="13">
-        <v>2</v>
+      <c r="C23" s="12">
+        <v>3</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>19</v>
@@ -1156,13 +1243,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B24" s="12">
         <v>3</v>
       </c>
-      <c r="C24" s="13">
-        <v>2</v>
+      <c r="C24" s="12">
+        <v>3</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>19</v>
@@ -1170,7 +1257,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B25" s="12">
         <v>3</v>
@@ -1184,7 +1271,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B26" s="12">
         <v>3</v>
@@ -1198,13 +1285,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B27" s="12">
         <v>3</v>
       </c>
-      <c r="C27" s="13">
-        <v>2</v>
+      <c r="C27" s="12">
+        <v>3</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>19</v>
@@ -1212,7 +1299,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B28" s="12">
         <v>3</v>
@@ -1225,8 +1312,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="10" t="s">
-        <v>37</v>
+      <c r="A29" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="B29" s="12">
         <v>3</v>
@@ -1238,9 +1325,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="10" t="s">
-        <v>27</v>
+    <row r="30" spans="1:4" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A30" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="B30" s="12">
         <v>3</v>
@@ -1253,8 +1340,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="14" t="s">
-        <v>26</v>
+      <c r="A31" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="B31" s="12">
         <v>3</v>
@@ -1266,12 +1353,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A32" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="12">
-        <v>3</v>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="13">
+        <v>2</v>
       </c>
       <c r="C32" s="12">
         <v>3</v>
@@ -1282,10 +1369,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="12">
-        <v>3</v>
+        <v>63</v>
+      </c>
+      <c r="B33" s="13">
+        <v>2</v>
       </c>
       <c r="C33" s="12">
         <v>3</v>
@@ -1296,13 +1383,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="12">
-        <v>3</v>
-      </c>
-      <c r="C34" s="13">
-        <v>2</v>
+        <v>82</v>
+      </c>
+      <c r="B34" s="13">
+        <v>2</v>
+      </c>
+      <c r="C34" s="12">
+        <v>3</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>19</v>
@@ -1310,13 +1397,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="12">
-        <v>3</v>
-      </c>
-      <c r="C35" s="13">
-        <v>2</v>
+        <v>81</v>
+      </c>
+      <c r="B35" s="13">
+        <v>2</v>
+      </c>
+      <c r="C35" s="12">
+        <v>3</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>19</v>
@@ -1324,13 +1411,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="12">
-        <v>3</v>
-      </c>
-      <c r="C36" s="15">
-        <v>1</v>
+        <v>83</v>
+      </c>
+      <c r="B36" s="13">
+        <v>2</v>
+      </c>
+      <c r="C36" s="12">
+        <v>3</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>19</v>
@@ -1338,13 +1425,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="12">
-        <v>3</v>
-      </c>
-      <c r="C37" s="15">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="B37" s="13">
+        <v>2</v>
+      </c>
+      <c r="C37" s="12">
+        <v>3</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>19</v>
@@ -1352,7 +1439,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B38" s="13">
         <v>2</v>
@@ -1366,7 +1453,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="B39" s="13">
         <v>2</v>
@@ -1380,13 +1467,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B40" s="13">
         <v>2</v>
       </c>
-      <c r="C40" s="15">
-        <v>1</v>
+      <c r="C40" s="12">
+        <v>3</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>19</v>
@@ -1394,7 +1481,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41" s="13">
         <v>2</v>
@@ -1408,13 +1495,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="15">
-        <v>1</v>
-      </c>
-      <c r="C42" s="13">
-        <v>2</v>
+        <v>42</v>
+      </c>
+      <c r="B42" s="13">
+        <v>2</v>
+      </c>
+      <c r="C42" s="12">
+        <v>3</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>19</v>
@@ -1422,21 +1509,441 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="12">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="B43" s="13">
+        <v>2</v>
       </c>
       <c r="C43" s="12">
         <v>3</v>
       </c>
-      <c r="D43" s="19" t="s">
-        <v>60</v>
+      <c r="D43" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="13">
+        <v>2</v>
+      </c>
+      <c r="C44" s="12">
+        <v>3</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="15">
+        <v>1</v>
+      </c>
+      <c r="C45" s="12">
+        <v>3</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="15">
+        <v>1</v>
+      </c>
+      <c r="C46" s="12">
+        <v>3</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="15">
+        <v>1</v>
+      </c>
+      <c r="C47" s="12">
+        <v>3</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="15">
+        <v>1</v>
+      </c>
+      <c r="C48" s="12">
+        <v>3</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="12">
+        <v>3</v>
+      </c>
+      <c r="C49" s="13">
+        <v>2</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="12">
+        <v>3</v>
+      </c>
+      <c r="C50" s="13">
+        <v>2</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" s="12">
+        <v>3</v>
+      </c>
+      <c r="C51" s="13">
+        <v>2</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" s="12">
+        <v>3</v>
+      </c>
+      <c r="C52" s="13">
+        <v>2</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="12">
+        <v>3</v>
+      </c>
+      <c r="C53" s="13">
+        <v>2</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" s="12">
+        <v>3</v>
+      </c>
+      <c r="C54" s="13">
+        <v>2</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="13">
+        <v>2</v>
+      </c>
+      <c r="C55" s="13">
+        <v>2</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="15">
+        <v>1</v>
+      </c>
+      <c r="C56" s="13">
+        <v>2</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="12">
+        <v>3</v>
+      </c>
+      <c r="C57" s="15">
+        <v>1</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58" s="12">
+        <v>3</v>
+      </c>
+      <c r="C58" s="15">
+        <v>1</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="13">
+        <v>2</v>
+      </c>
+      <c r="C59" s="15">
+        <v>1</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B60" s="13">
+        <v>2</v>
+      </c>
+      <c r="C60" s="15">
+        <v>1</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" s="13">
+        <v>2</v>
+      </c>
+      <c r="C61" s="15">
+        <v>1</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="12">
+        <v>3</v>
+      </c>
+      <c r="C62" s="12">
+        <v>3</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" s="12">
+        <v>3</v>
+      </c>
+      <c r="C63" s="12">
+        <v>3</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" s="12">
+        <v>3</v>
+      </c>
+      <c r="C64" s="12">
+        <v>3</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" s="15">
+        <v>1</v>
+      </c>
+      <c r="C65" s="13">
+        <v>2</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66" s="12">
+        <v>3</v>
+      </c>
+      <c r="C66" s="15">
+        <v>1</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="12">
+        <v>3</v>
+      </c>
+      <c r="C67" s="15">
+        <v>1</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B68" s="12">
+        <v>3</v>
+      </c>
+      <c r="C68" s="15">
+        <v>1</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" s="12">
+        <v>3</v>
+      </c>
+      <c r="C69" s="15">
+        <v>1</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" s="12">
+        <v>3</v>
+      </c>
+      <c r="C70" s="15">
+        <v>1</v>
+      </c>
+      <c r="D70" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71" s="13">
+        <v>2</v>
+      </c>
+      <c r="C71" s="15">
+        <v>1</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B72" s="13">
+        <v>2</v>
+      </c>
+      <c r="C72" s="15">
+        <v>1</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" s="13">
+        <v>2</v>
+      </c>
+      <c r="C73" s="15">
+        <v>1</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D42">
-    <sortCondition descending="1" ref="D1:D42"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D75">
+    <sortCondition descending="1" ref="D1:D75"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
